--- a/biology/Botanique/Carpentaria_acuminata/Carpentaria_acuminata.xlsx
+++ b/biology/Botanique/Carpentaria_acuminata/Carpentaria_acuminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpentaria acuminata, le palmier Carpentaria, est une espèce de plantes à fleurs de la famille des Arecaceae. C'est un palmier natif des côtes de la région tropicale des territoires du nord-ouest en Australie.
 C'est la seule espèce actuellement reconnue du genre Carpentaria.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpentaria acuminata est un superbe palmier, qui peut atteindre une taille de 20 mètres, avec un stipe de 12 à 15 cm de diamètre. Les feuilles sont pennées et mesurent de trois à quatre mètres de long.
 C'est une plante ornementale populaire dans le nord de l'Australie, car elle pousse très rapidement et possède un feuillage très élégant.
@@ -578,7 +594,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À noter que le genre Carpentaria ne doit pas être confondu avec un genre ayant un nom presque similaire, Carpenteria, qui est en fait un genre d'arbustes natif de Californie, appartenant à la famille Hydrangeaceae.
 </t>
